--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/LastRouteListReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/LastRouteListReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NewReleaseVodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999720A5-1BAE-441A-91E6-652A383008DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68EF11-845F-4E75-9143-4A1B8E5092AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Последний МЛ</t>
   </si>
   <si>
-    <t>Дата доставки последнего МЛ в статусе «Закрыт»</t>
-  </si>
-  <si>
     <t>Кол-во дней прошло от последнего МЛ</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>{{SelectedEmployeeCategories}}</t>
+  </si>
+  <si>
+    <t>Дата последнего доставленного МЛ</t>
   </si>
 </sst>
 </file>
@@ -270,14 +270,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,7 @@
     <col min="8" max="8" width="9.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.625" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.375" style="3" customWidth="1"/>
     <col min="14" max="1025" width="8.375" style="3"/>
@@ -515,18 +515,18 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <f ca="1">NOW()</f>
-        <v>45639.705805324076</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+        <v>45643.497761574072</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -535,15 +535,15 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -554,17 +554,17 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -575,17 +575,17 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -596,17 +596,17 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -615,19 +615,19 @@
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -650,85 +650,85 @@
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="K9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/LastRouteListReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/LastRouteListReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NewReleaseVodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE68EF11-845F-4E75-9143-4A1B8E5092AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD5AD7-84AB-4437-883B-FB0018EAE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,18 +30,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
-    <t>Отчет о дате последнего МЛ по Водителям</t>
-  </si>
-  <si>
     <t xml:space="preserve">Время формирования: </t>
   </si>
   <si>
     <t>Настройки отчета:</t>
   </si>
   <si>
-    <t>Статус водителя:</t>
-  </si>
-  <si>
     <t>{{SelectedEmployeeStatus}}</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>ФИО водителя</t>
-  </si>
-  <si>
-    <t>Статус водителя</t>
-  </si>
-  <si>
     <t>Первый раб.день</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>Дата последнего доставленного МЛ</t>
+  </si>
+  <si>
+    <t>ФИО сотрудника</t>
+  </si>
+  <si>
+    <t>Статус сотрудника</t>
+  </si>
+  <si>
+    <t>Статус сотрудника:</t>
+  </si>
+  <si>
+    <t>Отчет по сотрудникам</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -513,11 +513,11 @@
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19">
         <f ca="1">NOW()</f>
-        <v>45643.497761574072</v>
+        <v>45643.955859259258</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -552,10 +552,10 @@
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -573,10 +573,10 @@
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -594,10 +594,10 @@
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -615,10 +615,10 @@
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -651,84 +651,84 @@
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="I9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="K9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="M9" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="K10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
